--- a/A-pojat.xlsx
+++ b/A-pojat.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\own_prog\lentopallo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\own_prog\github\kaudet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23FE7850-7F73-4D72-B1C6-0388F1CA7DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5575641-BC73-4ADD-B3A8-09737841D9CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="1356" windowWidth="23040" windowHeight="12240" tabRatio="880" activeTab="1" xr2:uid="{CFC6D258-5D3C-46F8-BFEC-F3C271445404}"/>
+    <workbookView xWindow="60" yWindow="1140" windowWidth="23040" windowHeight="12240" tabRatio="880" xr2:uid="{CFC6D258-5D3C-46F8-BFEC-F3C271445404}"/>
   </bookViews>
   <sheets>
     <sheet name="A 2025-2027" sheetId="10" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>päivä</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>Lempo A2</t>
+  </si>
+  <si>
+    <t>https://sarjat.netlify.app/</t>
   </si>
 </sst>
 </file>
@@ -121,7 +124,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d&quot;.&quot;m&quot;.&quot;yyyy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,6 +153,14 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -196,10 +207,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -245,8 +257,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -559,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99567001-218C-45B4-A8EB-DA7B4798BC50}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -571,112 +585,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K2" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="11">
-        <f>SUM(C2:C3)</f>
-        <v>0</v>
-      </c>
-      <c r="D4" s="11">
-        <f>SUM(D2:D3)</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="11">
-        <f>SUM(E2:E3)</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="11">
-        <f>SUM(F2:F3)</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="12">
-        <f>SUM(G2:G3)</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="12">
-        <f>SUM(H2:H3)</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="12">
-        <f>SUM(I2:I3)</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="12">
-        <f>SUM(J2:J3)</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="10"/>
+      <c r="C5" s="11">
+        <f t="shared" ref="C5:J5" si="0">SUM(C3:C4)</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="10"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{2EBF401F-6ECB-4E04-A0D6-7F71C9DF0BB9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -684,7 +706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35338555-4C3B-4F48-AD20-7BBDECE7FD0C}">
   <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D10" sqref="D9:D10"/>
     </sheetView>
   </sheetViews>

--- a/A-pojat.xlsx
+++ b/A-pojat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\own_prog\github\kaudet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5575641-BC73-4ADD-B3A8-09737841D9CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11043E34-7C7C-4344-8AAB-6801DCC88396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="1140" windowWidth="23040" windowHeight="12240" tabRatio="880" xr2:uid="{CFC6D258-5D3C-46F8-BFEC-F3C271445404}"/>
+    <workbookView xWindow="0" yWindow="1140" windowWidth="23040" windowHeight="12240" tabRatio="880" xr2:uid="{CFC6D258-5D3C-46F8-BFEC-F3C271445404}"/>
   </bookViews>
   <sheets>
     <sheet name="A 2025-2027" sheetId="10" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>päivä</t>
   </si>
@@ -112,9 +112,6 @@
   </si>
   <si>
     <t>Lempo A2</t>
-  </si>
-  <si>
-    <t>https://sarjat.netlify.app/</t>
   </si>
 </sst>
 </file>
@@ -124,7 +121,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d&quot;.&quot;m&quot;.&quot;yyyy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,14 +150,6 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -207,11 +196,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -257,10 +245,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -573,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99567001-218C-45B4-A8EB-DA7B4798BC50}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -585,120 +571,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
-        <v>25</v>
+      <c r="A1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>19</v>
-      </c>
+      <c r="A2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="11">
-        <f t="shared" ref="C5:J5" si="0">SUM(C3:C4)</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="11">
+      <c r="C4" s="11">
+        <f t="shared" ref="C4:J4" si="0">SUM(C2:C3)</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E4" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F4" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G4" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H4" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I4" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J4" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K5" s="10"/>
+      <c r="K4" s="10"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{2EBF401F-6ECB-4E04-A0D6-7F71C9DF0BB9}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/A-pojat.xlsx
+++ b/A-pojat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\own_prog\github\kaudet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11043E34-7C7C-4344-8AAB-6801DCC88396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D504A16-95A6-4D6A-9C47-37D27814EEA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1140" windowWidth="23040" windowHeight="12240" tabRatio="880" xr2:uid="{CFC6D258-5D3C-46F8-BFEC-F3C271445404}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="880" activeTab="1" xr2:uid="{CFC6D258-5D3C-46F8-BFEC-F3C271445404}"/>
   </bookViews>
   <sheets>
     <sheet name="A 2025-2027" sheetId="10" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>päivä</t>
   </si>
@@ -112,6 +112,15 @@
   </si>
   <si>
     <t>Lempo A2</t>
+  </si>
+  <si>
+    <t>Salpis</t>
+  </si>
+  <si>
+    <t>PuMa A1</t>
+  </si>
+  <si>
+    <t>PuMa A2</t>
   </si>
 </sst>
 </file>
@@ -152,7 +161,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -168,6 +177,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -199,7 +214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -244,6 +259,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -561,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99567001-218C-45B4-A8EB-DA7B4798BC50}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -684,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35338555-4C3B-4F48-AD20-7BBDECE7FD0C}">
   <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D10" sqref="D9:D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -744,7 +762,7 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="19">
-        <v>45942</v>
+        <v>45962</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>7</v>
@@ -752,7 +770,9 @@
       <c r="C2" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="20"/>
+      <c r="D2" s="20" t="s">
+        <v>25</v>
+      </c>
       <c r="E2" s="21"/>
       <c r="F2" s="20"/>
       <c r="G2" s="20"/>
@@ -783,10 +803,18 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
+      <c r="A3" s="23">
+        <v>45962</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>26</v>
+      </c>
       <c r="E3" s="15"/>
       <c r="F3" s="14"/>
       <c r="G3" s="8"/>
@@ -814,10 +842,18 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="19"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
+      <c r="A4" s="19">
+        <v>45962</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>27</v>
+      </c>
       <c r="E4" s="21"/>
       <c r="F4" s="20"/>
       <c r="G4" s="10"/>

--- a/A-pojat.xlsx
+++ b/A-pojat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\own_prog\github\kaudet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D504A16-95A6-4D6A-9C47-37D27814EEA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F98C63-C0F6-4FD5-A775-ECF3D76A0924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="880" activeTab="1" xr2:uid="{CFC6D258-5D3C-46F8-BFEC-F3C271445404}"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="20880" windowHeight="12012" tabRatio="880" xr2:uid="{CFC6D258-5D3C-46F8-BFEC-F3C271445404}"/>
   </bookViews>
   <sheets>
     <sheet name="A 2025-2027" sheetId="10" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
     <t>päivä</t>
   </si>
@@ -99,9 +99,6 @@
     <t>sijoitus</t>
   </si>
   <si>
-    <t>pisteet I-V</t>
-  </si>
-  <si>
     <t>eräpisteet I-V</t>
   </si>
   <si>
@@ -121,6 +118,27 @@
   </si>
   <si>
     <t>PuMa A2</t>
+  </si>
+  <si>
+    <t>2-1</t>
+  </si>
+  <si>
+    <t>25-17,20-25,15-9</t>
+  </si>
+  <si>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>16-25,10-25</t>
+  </si>
+  <si>
+    <t>1-2</t>
+  </si>
+  <si>
+    <t>28-26,17-25,14-16</t>
+  </si>
+  <si>
+    <t>pisteet Lempo</t>
   </si>
 </sst>
 </file>
@@ -579,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99567001-218C-45B4-A8EB-DA7B4798BC50}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -608,13 +626,13 @@
         <v>16</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="H1" s="9" t="s">
         <v>17</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J1" s="9" t="s">
         <v>18</v>
@@ -625,19 +643,43 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
+        <v>21</v>
+      </c>
+      <c r="C2" s="10">
+        <f>'A 2025-2026'!R2</f>
+        <v>3</v>
+      </c>
+      <c r="D2" s="10">
+        <f>'A 2025-2026'!O2</f>
+        <v>1</v>
+      </c>
+      <c r="E2" s="10">
+        <f>'A 2025-2026'!P2</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="10">
+        <f>'A 2025-2026'!Q2</f>
+        <v>2</v>
+      </c>
+      <c r="G2" s="10">
+        <f>'A 2025-2026'!O3</f>
+        <v>2</v>
+      </c>
+      <c r="H2" s="10">
+        <f>'A 2025-2026'!Q3</f>
+        <v>4</v>
+      </c>
+      <c r="I2" s="10">
+        <f>'A 2025-2026'!O4</f>
+        <v>155</v>
+      </c>
+      <c r="J2" s="10">
+        <f>'A 2025-2026'!Q4</f>
+        <v>168</v>
+      </c>
       <c r="K2" s="10"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -660,11 +702,11 @@
       </c>
       <c r="C4" s="11">
         <f t="shared" ref="C4:J4" si="0">SUM(C2:C3)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="11">
         <f t="shared" si="0"/>
@@ -672,23 +714,23 @@
       </c>
       <c r="F4" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G4" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H4" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I4" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="J4" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="K4" s="10"/>
     </row>
@@ -702,8 +744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35338555-4C3B-4F48-AD20-7BBDECE7FD0C}">
   <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -747,7 +789,7 @@
       <c r="M1" s="9"/>
       <c r="N1" s="9"/>
       <c r="O1" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P1" s="9" t="s">
         <v>10</v>
@@ -760,7 +802,7 @@
       </c>
       <c r="S1" s="1"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="19">
         <v>45962</v>
       </c>
@@ -768,26 +810,36 @@
         <v>7</v>
       </c>
       <c r="C2" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="20"/>
+      <c r="E2" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>28</v>
+      </c>
       <c r="G2" s="20"/>
-      <c r="H2" s="10"/>
+      <c r="H2" s="10">
+        <v>1</v>
+      </c>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
+      <c r="K2" s="10">
+        <v>70</v>
+      </c>
+      <c r="L2" s="10">
+        <v>51</v>
+      </c>
       <c r="M2" s="10"/>
       <c r="N2" s="11" t="s">
         <v>8</v>
       </c>
       <c r="O2" s="10">
         <f>SUM(H2:H29)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" s="10">
         <f>SUM(I2:I29)</f>
@@ -795,11 +847,11 @@
       </c>
       <c r="Q2" s="10">
         <f>SUM(J2:J29)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R2" s="10">
         <f>SUM(O2:Q2)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
@@ -810,38 +862,48 @@
         <v>7</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="14"/>
+        <v>25</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
+      <c r="J3" s="8">
+        <v>1</v>
+      </c>
+      <c r="K3" s="8">
+        <v>26</v>
+      </c>
+      <c r="L3" s="8">
+        <v>50</v>
+      </c>
       <c r="M3" s="8"/>
       <c r="N3" s="7" t="s">
         <v>4</v>
       </c>
       <c r="O3" s="8">
         <f>SUM(H2:H29)*2+SUM(I2:I29)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P3" s="8"/>
       <c r="Q3" s="8">
         <f>SUM(J2:J29)*2+SUM(I2:I29)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R3" s="8">
         <f>SUM(O3:Q3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="19">
         <v>45962</v>
       </c>
@@ -849,35 +911,45 @@
         <v>7</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="20"/>
+        <v>26</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>32</v>
+      </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
+      <c r="J4" s="10">
+        <v>1</v>
+      </c>
+      <c r="K4" s="10">
+        <v>59</v>
+      </c>
+      <c r="L4" s="10">
+        <v>67</v>
+      </c>
       <c r="M4" s="10"/>
       <c r="N4" s="11" t="s">
         <v>9</v>
       </c>
       <c r="O4" s="10">
         <f>SUM(K2:K30)</f>
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="P4" s="10"/>
       <c r="Q4" s="10">
         <f>SUM(L2:L30)</f>
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="R4" s="10">
         <f>SUM(O4:Q4)</f>
-        <v>0</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">

--- a/A-pojat.xlsx
+++ b/A-pojat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\own_prog\github\kaudet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F98C63-C0F6-4FD5-A775-ECF3D76A0924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C3DCDC-516F-41C0-B870-15F0B75933C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1500" windowWidth="20880" windowHeight="12012" tabRatio="880" xr2:uid="{CFC6D258-5D3C-46F8-BFEC-F3C271445404}"/>
+    <workbookView xWindow="1248" yWindow="516" windowWidth="20880" windowHeight="12012" tabRatio="880" activeTab="1" xr2:uid="{CFC6D258-5D3C-46F8-BFEC-F3C271445404}"/>
   </bookViews>
   <sheets>
     <sheet name="A 2025-2027" sheetId="10" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
   <si>
     <t>päivä</t>
   </si>
@@ -139,6 +139,15 @@
   </si>
   <si>
     <t>pisteet Lempo</t>
+  </si>
+  <si>
+    <t>VaLePa</t>
+  </si>
+  <si>
+    <t>OsVa PU17</t>
+  </si>
+  <si>
+    <t>Jou</t>
   </si>
 </sst>
 </file>
@@ -597,8 +606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99567001-218C-45B4-A8EB-DA7B4798BC50}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -744,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35338555-4C3B-4F48-AD20-7BBDECE7FD0C}">
   <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -955,8 +964,12 @@
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="13"/>
       <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
+      <c r="C5" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="E5" s="14"/>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
@@ -975,8 +988,12 @@
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="19"/>
       <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
+      <c r="C6" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>34</v>
+      </c>
       <c r="E6" s="21"/>
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
@@ -995,8 +1012,12 @@
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="13"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
+      <c r="C7" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>35</v>
+      </c>
       <c r="E7" s="14"/>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>

--- a/A-pojat.xlsx
+++ b/A-pojat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\own_prog\github\kaudet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C3DCDC-516F-41C0-B870-15F0B75933C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D26FF2FE-F814-4519-9818-36144BFD0FFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1248" yWindow="516" windowWidth="20880" windowHeight="12012" tabRatio="880" activeTab="1" xr2:uid="{CFC6D258-5D3C-46F8-BFEC-F3C271445404}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
   <si>
     <t>päivä</t>
   </si>
@@ -753,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35338555-4C3B-4F48-AD20-7BBDECE7FD0C}">
   <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -962,8 +962,12 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14"/>
+      <c r="A5" s="13">
+        <v>45981</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>7</v>
+      </c>
       <c r="C5" s="14" t="s">
         <v>23</v>
       </c>
@@ -986,8 +990,12 @@
       <c r="R5" s="8"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="19"/>
-      <c r="B6" s="20"/>
+      <c r="A6" s="19">
+        <v>45981</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>7</v>
+      </c>
       <c r="C6" s="20" t="s">
         <v>23</v>
       </c>
@@ -1010,8 +1018,12 @@
       <c r="R6" s="10"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14"/>
+      <c r="A7" s="13">
+        <v>45981</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>7</v>
+      </c>
       <c r="C7" s="14" t="s">
         <v>23</v>
       </c>

--- a/A-pojat.xlsx
+++ b/A-pojat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\own_prog\github\kaudet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D26FF2FE-F814-4519-9818-36144BFD0FFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7FAE338-9202-4A1B-B77E-F41DCAEB9FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1248" yWindow="516" windowWidth="20880" windowHeight="12012" tabRatio="880" activeTab="1" xr2:uid="{CFC6D258-5D3C-46F8-BFEC-F3C271445404}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="21876" windowHeight="12012" tabRatio="880" activeTab="1" xr2:uid="{CFC6D258-5D3C-46F8-BFEC-F3C271445404}"/>
   </bookViews>
   <sheets>
     <sheet name="A 2025-2027" sheetId="10" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
   <si>
     <t>päivä</t>
   </si>
@@ -148,6 +148,15 @@
   </si>
   <si>
     <t>Jou</t>
+  </si>
+  <si>
+    <t>13-25,15-25</t>
+  </si>
+  <si>
+    <t>21-25,17-25</t>
+  </si>
+  <si>
+    <t>21-25,14-25</t>
   </si>
 </sst>
 </file>
@@ -659,7 +668,7 @@
       </c>
       <c r="C2" s="10">
         <f>'A 2025-2026'!R2</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D2" s="10">
         <f>'A 2025-2026'!O2</f>
@@ -671,7 +680,7 @@
       </c>
       <c r="F2" s="10">
         <f>'A 2025-2026'!Q2</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G2" s="10">
         <f>'A 2025-2026'!O3</f>
@@ -679,15 +688,15 @@
       </c>
       <c r="H2" s="10">
         <f>'A 2025-2026'!Q3</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I2" s="10">
         <f>'A 2025-2026'!O4</f>
-        <v>155</v>
+        <v>256</v>
       </c>
       <c r="J2" s="10">
         <f>'A 2025-2026'!Q4</f>
-        <v>168</v>
+        <v>318</v>
       </c>
       <c r="K2" s="10"/>
     </row>
@@ -711,7 +720,7 @@
       </c>
       <c r="C4" s="11">
         <f t="shared" ref="C4:J4" si="0">SUM(C2:C3)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D4" s="11">
         <f t="shared" si="0"/>
@@ -723,7 +732,7 @@
       </c>
       <c r="F4" s="11">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G4" s="12">
         <f t="shared" si="0"/>
@@ -731,15 +740,15 @@
       </c>
       <c r="H4" s="12">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I4" s="12">
         <f t="shared" si="0"/>
-        <v>155</v>
+        <v>256</v>
       </c>
       <c r="J4" s="12">
         <f t="shared" si="0"/>
-        <v>168</v>
+        <v>318</v>
       </c>
       <c r="K4" s="10"/>
     </row>
@@ -754,7 +763,7 @@
   <dimension ref="A1:S29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -856,11 +865,11 @@
       </c>
       <c r="Q2" s="10">
         <f>SUM(J2:J29)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R2" s="10">
         <f>SUM(O2:Q2)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
@@ -905,11 +914,11 @@
       <c r="P3" s="8"/>
       <c r="Q3" s="8">
         <f>SUM(J2:J29)*2+SUM(I2:I29)</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="R3" s="8">
         <f>SUM(O3:Q3)</f>
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
@@ -949,16 +958,16 @@
       </c>
       <c r="O4" s="10">
         <f>SUM(K2:K30)</f>
-        <v>155</v>
+        <v>256</v>
       </c>
       <c r="P4" s="10"/>
       <c r="Q4" s="10">
         <f>SUM(L2:L30)</f>
-        <v>168</v>
+        <v>318</v>
       </c>
       <c r="R4" s="10">
         <f>SUM(O4:Q4)</f>
-        <v>323</v>
+        <v>574</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
@@ -974,14 +983,24 @@
       <c r="D5" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="16"/>
+      <c r="E5" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>37</v>
+      </c>
       <c r="G5" s="16"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
+      <c r="J5" s="8">
+        <v>1</v>
+      </c>
+      <c r="K5" s="8">
+        <v>28</v>
+      </c>
+      <c r="L5" s="8">
+        <v>50</v>
+      </c>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
@@ -1002,14 +1021,24 @@
       <c r="D6" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="22"/>
+      <c r="E6" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>38</v>
+      </c>
       <c r="G6" s="22"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
+      <c r="J6" s="10">
+        <v>1</v>
+      </c>
+      <c r="K6" s="10">
+        <v>38</v>
+      </c>
+      <c r="L6" s="10">
+        <v>50</v>
+      </c>
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
@@ -1030,14 +1059,24 @@
       <c r="D7" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="16"/>
+      <c r="E7" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>39</v>
+      </c>
       <c r="G7" s="16"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
+      <c r="J7" s="8">
+        <v>1</v>
+      </c>
+      <c r="K7" s="8">
+        <v>35</v>
+      </c>
+      <c r="L7" s="8">
+        <v>50</v>
+      </c>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>

--- a/A-pojat.xlsx
+++ b/A-pojat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\own_prog\github\kaudet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7FAE338-9202-4A1B-B77E-F41DCAEB9FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2030DF4C-7E52-4E25-AC23-2F111A1A0E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="384" yWindow="384" windowWidth="21876" windowHeight="12012" tabRatio="880" activeTab="1" xr2:uid="{CFC6D258-5D3C-46F8-BFEC-F3C271445404}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
   <si>
     <t>päivä</t>
   </si>
@@ -157,6 +157,12 @@
   </si>
   <si>
     <t>21-25,14-25</t>
+  </si>
+  <si>
+    <t>BV</t>
+  </si>
+  <si>
+    <t>PuMa3</t>
   </si>
 </sst>
 </file>
@@ -763,7 +769,7 @@
   <dimension ref="A1:S29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1085,10 +1091,18 @@
       <c r="R7" s="8"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="19"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
+      <c r="A8" s="19">
+        <v>46004</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>40</v>
+      </c>
       <c r="E8" s="21"/>
       <c r="F8" s="22"/>
       <c r="G8" s="22"/>
@@ -1105,10 +1119,18 @@
       <c r="R8" s="10"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
+      <c r="A9" s="13">
+        <v>45639</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>41</v>
+      </c>
       <c r="E9" s="15"/>
       <c r="F9" s="16"/>
       <c r="G9" s="8"/>

--- a/A-pojat.xlsx
+++ b/A-pojat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\own_prog\github\kaudet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2030DF4C-7E52-4E25-AC23-2F111A1A0E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64923818-3422-4B82-A917-CAADCCCC8DE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="21876" windowHeight="12012" tabRatio="880" activeTab="1" xr2:uid="{CFC6D258-5D3C-46F8-BFEC-F3C271445404}"/>
+    <workbookView xWindow="0" yWindow="360" windowWidth="21876" windowHeight="12012" tabRatio="880" activeTab="1" xr2:uid="{CFC6D258-5D3C-46F8-BFEC-F3C271445404}"/>
   </bookViews>
   <sheets>
     <sheet name="A 2025-2027" sheetId="10" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
   <si>
     <t>päivä</t>
   </si>
@@ -163,6 +163,15 @@
   </si>
   <si>
     <t>PuMa3</t>
+  </si>
+  <si>
+    <t>3-0</t>
+  </si>
+  <si>
+    <t>25-13,25-11,25-19</t>
+  </si>
+  <si>
+    <t>25-22,19-25,25-20</t>
   </si>
 </sst>
 </file>
@@ -674,11 +683,11 @@
       </c>
       <c r="C2" s="10">
         <f>'A 2025-2026'!R2</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" s="10">
         <f>'A 2025-2026'!O2</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E2" s="10">
         <f>'A 2025-2026'!P2</f>
@@ -690,19 +699,19 @@
       </c>
       <c r="G2" s="10">
         <f>'A 2025-2026'!O3</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H2" s="10">
         <f>'A 2025-2026'!Q3</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I2" s="10">
         <f>'A 2025-2026'!O4</f>
-        <v>256</v>
+        <v>400</v>
       </c>
       <c r="J2" s="10">
         <f>'A 2025-2026'!Q4</f>
-        <v>318</v>
+        <v>428</v>
       </c>
       <c r="K2" s="10"/>
     </row>
@@ -726,11 +735,11 @@
       </c>
       <c r="C4" s="11">
         <f t="shared" ref="C4:J4" si="0">SUM(C2:C3)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4" s="11">
         <f t="shared" si="0"/>
@@ -742,19 +751,19 @@
       </c>
       <c r="G4" s="12">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H4" s="12">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I4" s="12">
         <f t="shared" si="0"/>
-        <v>256</v>
+        <v>400</v>
       </c>
       <c r="J4" s="12">
         <f t="shared" si="0"/>
-        <v>318</v>
+        <v>428</v>
       </c>
       <c r="K4" s="10"/>
     </row>
@@ -769,7 +778,7 @@
   <dimension ref="A1:S29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -862,8 +871,8 @@
         <v>8</v>
       </c>
       <c r="O2" s="10">
-        <f>SUM(H2:H29)</f>
-        <v>1</v>
+        <f>SUM(H2:H25)+SUM(G2:G25)</f>
+        <v>3</v>
       </c>
       <c r="P2" s="10">
         <f>SUM(I2:I29)</f>
@@ -875,7 +884,7 @@
       </c>
       <c r="R2" s="10">
         <f>SUM(O2:Q2)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
@@ -914,17 +923,17 @@
         <v>4</v>
       </c>
       <c r="O3" s="8">
-        <f>SUM(H2:H29)*2+SUM(I2:I29)</f>
-        <v>2</v>
+        <f>SUM(H2:H27)*2+SUM(I2:I279)+SUM(G2:G27)*3</f>
+        <v>7</v>
       </c>
       <c r="P3" s="8"/>
       <c r="Q3" s="8">
-        <f>SUM(J2:J29)*2+SUM(I2:I29)</f>
-        <v>10</v>
+        <f>SUM(J2:J27)*2+SUM(I2:I29)+H9</f>
+        <v>11</v>
       </c>
       <c r="R3" s="8">
         <f>SUM(O3:Q3)</f>
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
@@ -964,16 +973,16 @@
       </c>
       <c r="O4" s="10">
         <f>SUM(K2:K30)</f>
-        <v>256</v>
+        <v>400</v>
       </c>
       <c r="P4" s="10"/>
       <c r="Q4" s="10">
         <f>SUM(L2:L30)</f>
-        <v>318</v>
+        <v>428</v>
       </c>
       <c r="R4" s="10">
         <f>SUM(O4:Q4)</f>
-        <v>574</v>
+        <v>828</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
@@ -1090,7 +1099,7 @@
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="19">
         <v>46004</v>
       </c>
@@ -1103,14 +1112,24 @@
       <c r="D8" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
+      <c r="E8" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="22">
+        <v>1</v>
+      </c>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
+      <c r="K8" s="10">
+        <v>75</v>
+      </c>
+      <c r="L8" s="10">
+        <v>43</v>
+      </c>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
@@ -1118,7 +1137,7 @@
       <c r="Q8" s="10"/>
       <c r="R8" s="10"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="13">
         <v>45639</v>
       </c>
@@ -1131,14 +1150,24 @@
       <c r="D9" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="16"/>
+      <c r="E9" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>44</v>
+      </c>
       <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
+      <c r="H9" s="8">
+        <v>1</v>
+      </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
+      <c r="K9" s="8">
+        <v>69</v>
+      </c>
+      <c r="L9" s="8">
+        <v>67</v>
+      </c>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>

--- a/A-pojat.xlsx
+++ b/A-pojat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\own_prog\github\kaudet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64923818-3422-4B82-A917-CAADCCCC8DE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CFD12E-97DE-43DE-8083-A9BD7BAEBD64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="360" windowWidth="21876" windowHeight="12012" tabRatio="880" activeTab="1" xr2:uid="{CFC6D258-5D3C-46F8-BFEC-F3C271445404}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="880" activeTab="1" xr2:uid="{CFC6D258-5D3C-46F8-BFEC-F3C271445404}"/>
   </bookViews>
   <sheets>
     <sheet name="A 2025-2027" sheetId="10" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="49">
   <si>
     <t>päivä</t>
   </si>
@@ -172,6 +172,18 @@
   </si>
   <si>
     <t>25-22,19-25,25-20</t>
+  </si>
+  <si>
+    <t>25-16,26-28,15-5</t>
+  </si>
+  <si>
+    <t>14-25,15-25</t>
+  </si>
+  <si>
+    <t>KriVe</t>
+  </si>
+  <si>
+    <t>26-28,23-25</t>
   </si>
 </sst>
 </file>
@@ -683,11 +695,11 @@
       </c>
       <c r="C2" s="10">
         <f>'A 2025-2026'!R2</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D2" s="10">
         <f>'A 2025-2026'!O2</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" s="10">
         <f>'A 2025-2026'!P2</f>
@@ -695,23 +707,23 @@
       </c>
       <c r="F2" s="10">
         <f>'A 2025-2026'!Q2</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G2" s="10">
         <f>'A 2025-2026'!O3</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H2" s="10">
         <f>'A 2025-2026'!Q3</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I2" s="10">
         <f>'A 2025-2026'!O4</f>
-        <v>400</v>
+        <v>544</v>
       </c>
       <c r="J2" s="10">
         <f>'A 2025-2026'!Q4</f>
-        <v>428</v>
+        <v>580</v>
       </c>
       <c r="K2" s="10"/>
     </row>
@@ -735,11 +747,11 @@
       </c>
       <c r="C4" s="11">
         <f t="shared" ref="C4:J4" si="0">SUM(C2:C3)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D4" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4" s="11">
         <f t="shared" si="0"/>
@@ -747,23 +759,23 @@
       </c>
       <c r="F4" s="11">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G4" s="12">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H4" s="12">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I4" s="12">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>544</v>
       </c>
       <c r="J4" s="12">
         <f t="shared" si="0"/>
-        <v>428</v>
+        <v>580</v>
       </c>
       <c r="K4" s="10"/>
     </row>
@@ -778,7 +790,7 @@
   <dimension ref="A1:S29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -872,7 +884,7 @@
       </c>
       <c r="O2" s="10">
         <f>SUM(H2:H25)+SUM(G2:G25)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P2" s="10">
         <f>SUM(I2:I29)</f>
@@ -880,11 +892,11 @@
       </c>
       <c r="Q2" s="10">
         <f>SUM(J2:J29)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R2" s="10">
         <f>SUM(O2:Q2)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
@@ -924,16 +936,16 @@
       </c>
       <c r="O3" s="8">
         <f>SUM(H2:H27)*2+SUM(I2:I279)+SUM(G2:G27)*3</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="P3" s="8"/>
       <c r="Q3" s="8">
         <f>SUM(J2:J27)*2+SUM(I2:I29)+H9</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="R3" s="8">
         <f>SUM(O3:Q3)</f>
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
@@ -973,16 +985,16 @@
       </c>
       <c r="O4" s="10">
         <f>SUM(K2:K30)</f>
-        <v>400</v>
+        <v>544</v>
       </c>
       <c r="P4" s="10"/>
       <c r="Q4" s="10">
         <f>SUM(L2:L30)</f>
-        <v>428</v>
+        <v>580</v>
       </c>
       <c r="R4" s="10">
         <f>SUM(O4:Q4)</f>
-        <v>828</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
@@ -1139,7 +1151,7 @@
     </row>
     <row r="9" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="13">
-        <v>45639</v>
+        <v>46004</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>7</v>
@@ -1175,19 +1187,37 @@
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" s="19"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="22"/>
+    <row r="10" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="19">
+        <v>46046</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="G10" s="22"/>
-      <c r="H10" s="10"/>
+      <c r="H10" s="10">
+        <v>1</v>
+      </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
+      <c r="K10" s="10">
+        <v>66</v>
+      </c>
+      <c r="L10" s="10">
+        <v>49</v>
+      </c>
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
       <c r="O10" s="10"/>
@@ -1196,18 +1226,36 @@
       <c r="R10" s="10"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="16"/>
+      <c r="A11" s="13">
+        <v>46046</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>46</v>
+      </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
+      <c r="J11" s="8">
+        <v>1</v>
+      </c>
+      <c r="K11" s="8">
+        <v>29</v>
+      </c>
+      <c r="L11" s="8">
+        <v>50</v>
+      </c>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
@@ -1216,18 +1264,36 @@
       <c r="R11" s="8"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="19"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="22"/>
+      <c r="A12" s="19">
+        <v>46046</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>48</v>
+      </c>
       <c r="G12" s="22"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
+      <c r="J12" s="10">
+        <v>1</v>
+      </c>
+      <c r="K12" s="10">
+        <v>49</v>
+      </c>
+      <c r="L12" s="10">
+        <v>53</v>
+      </c>
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
       <c r="O12" s="10"/>

--- a/A-pojat.xlsx
+++ b/A-pojat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\own_prog\github\kaudet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CFD12E-97DE-43DE-8083-A9BD7BAEBD64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD9E001-D1AE-4E81-9D73-2EE8A3981977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="880" activeTab="1" xr2:uid="{CFC6D258-5D3C-46F8-BFEC-F3C271445404}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="50">
   <si>
     <t>päivä</t>
   </si>
@@ -184,6 +184,9 @@
   </si>
   <si>
     <t>26-28,23-25</t>
+  </si>
+  <si>
+    <t>PuMa A3</t>
   </si>
 </sst>
 </file>
@@ -790,7 +793,7 @@
   <dimension ref="A1:S29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1302,10 +1305,18 @@
       <c r="R12" s="10"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
+      <c r="A13" s="13">
+        <v>46130</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>24</v>
+      </c>
       <c r="E13" s="17"/>
       <c r="F13" s="16"/>
       <c r="G13" s="8"/>
@@ -1322,10 +1333,18 @@
       <c r="R13" s="8"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="19"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
+      <c r="A14" s="19">
+        <v>46130</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>40</v>
+      </c>
       <c r="E14" s="21"/>
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
@@ -1342,10 +1361,18 @@
       <c r="R14" s="10"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="18"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
+      <c r="A15" s="13">
+        <v>46130</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="E15" s="14"/>
       <c r="F15" s="16"/>
       <c r="G15" s="8"/>
